--- a/database/industries/ghaza/ghevita/income/quarterly/rial.xlsx
+++ b/database/industries/ghaza/ghevita/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghevita\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghevita\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58530557-325C-4400-81AF-B37C52AC3F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6208BC82-CEBB-4995-96C5-3FED07B8BE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-06-17 (5)</t>
+  </si>
+  <si>
+    <t>1400-07-29 (2)</t>
+  </si>
+  <si>
+    <t>1400-12-22 (10)</t>
+  </si>
+  <si>
+    <t>1401-01-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-06-14 (5)</t>
   </si>
   <si>
     <t>1401-07-23 (2)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>792643</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1540118</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2117345</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1925032</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1014229</v>
+      </c>
+      <c r="I11" s="13">
         <v>1400993</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>2159749</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>1664504</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>2763817</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>3867199</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-524760</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-976078</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-1422974</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-1309022</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-930376</v>
+      </c>
+      <c r="I12" s="11">
         <v>-1067611</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-1603385</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-1290724</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-1873689</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-2410583</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>267883</v>
+      </c>
+      <c r="E13" s="15">
+        <v>564040</v>
+      </c>
+      <c r="F13" s="15">
+        <v>694371</v>
+      </c>
+      <c r="G13" s="15">
+        <v>616010</v>
+      </c>
+      <c r="H13" s="15">
+        <v>83853</v>
+      </c>
+      <c r="I13" s="15">
         <v>333382</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>556364</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>373780</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>890128</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>1456616</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-136155</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-171594</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-243343</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-224919</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-176737</v>
+      </c>
+      <c r="I14" s="11">
         <v>-274498</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-343278</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-360941</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-509964</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-715521</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>5066</v>
+      </c>
+      <c r="E16" s="11">
+        <v>4002</v>
+      </c>
+      <c r="F16" s="11">
+        <v>7988</v>
+      </c>
+      <c r="G16" s="11">
+        <v>7851</v>
+      </c>
+      <c r="H16" s="11">
+        <v>10308</v>
+      </c>
+      <c r="I16" s="11">
         <v>11053</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-3406</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>22060</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>18333</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>63122</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>136794</v>
+      </c>
+      <c r="E17" s="15">
+        <v>396448</v>
+      </c>
+      <c r="F17" s="15">
+        <v>459016</v>
+      </c>
+      <c r="G17" s="15">
+        <v>398942</v>
+      </c>
+      <c r="H17" s="15">
+        <v>-82576</v>
+      </c>
+      <c r="I17" s="15">
         <v>69937</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>209680</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>34899</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>398497</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>804217</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-109911</v>
+      </c>
+      <c r="E18" s="11">
+        <v>56994</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-230578</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-120752</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-336260</v>
+      </c>
+      <c r="I18" s="11">
         <v>-72185</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-852088</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-209394</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-191300</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-372610</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>456125</v>
+      </c>
+      <c r="E19" s="13">
+        <v>301761</v>
+      </c>
+      <c r="F19" s="13">
+        <v>142549</v>
+      </c>
+      <c r="G19" s="13">
+        <v>110327</v>
+      </c>
+      <c r="H19" s="13">
+        <v>193301</v>
+      </c>
+      <c r="I19" s="13">
         <v>14705</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>1830850</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>209523</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>140077</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>168760</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>483008</v>
+      </c>
+      <c r="E20" s="17">
+        <v>755203</v>
+      </c>
+      <c r="F20" s="17">
+        <v>370987</v>
+      </c>
+      <c r="G20" s="17">
+        <v>388517</v>
+      </c>
+      <c r="H20" s="17">
+        <v>-225535</v>
+      </c>
+      <c r="I20" s="17">
         <v>12457</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>1188442</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>35028</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>347274</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>600367</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>0</v>
+        <v>-15214</v>
       </c>
       <c r="E21" s="13">
+        <v>-24516</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-21032</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-24889</v>
+      </c>
+      <c r="H21" s="13">
+        <v>24889</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
         <v>-80000</v>
       </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13">
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
         <v>-51084</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-17492</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>467794</v>
+      </c>
+      <c r="E22" s="17">
+        <v>730687</v>
+      </c>
+      <c r="F22" s="17">
+        <v>349955</v>
+      </c>
+      <c r="G22" s="17">
+        <v>363628</v>
+      </c>
+      <c r="H22" s="17">
+        <v>-200646</v>
+      </c>
+      <c r="I22" s="17">
         <v>12457</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>1108442</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>35028</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>296190</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>582875</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,62 +1274,107 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>467794</v>
+      </c>
+      <c r="E24" s="17">
+        <v>730687</v>
+      </c>
+      <c r="F24" s="17">
+        <v>349955</v>
+      </c>
+      <c r="G24" s="17">
+        <v>363628</v>
+      </c>
+      <c r="H24" s="17">
+        <v>-200646</v>
+      </c>
+      <c r="I24" s="17">
         <v>12457</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>1108442</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>35028</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>296190</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>582875</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>355</v>
+      </c>
+      <c r="E25" s="13">
+        <v>555</v>
+      </c>
+      <c r="F25" s="13">
+        <v>266</v>
+      </c>
+      <c r="G25" s="13">
+        <v>104</v>
+      </c>
+      <c r="H25" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I25" s="13">
         <v>4</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>317</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>10</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>85</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>3500000</v>
+        <v>1316018</v>
       </c>
       <c r="E26" s="11">
-        <v>3500000</v>
+        <v>1316018</v>
       </c>
       <c r="F26" s="11">
-        <v>3500000</v>
+        <v>1316018</v>
       </c>
       <c r="G26" s="11">
         <v>3500000</v>
@@ -1055,29 +1382,59 @@
       <c r="H26" s="11">
         <v>3500000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="11">
+        <v>3500000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>3500000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>3500000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>3500000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
+        <v>134</v>
+      </c>
+      <c r="E27" s="13">
+        <v>209</v>
+      </c>
+      <c r="F27" s="13">
+        <v>100</v>
+      </c>
+      <c r="G27" s="13">
+        <v>104</v>
+      </c>
+      <c r="H27" s="13">
+        <v>-57</v>
+      </c>
+      <c r="I27" s="13">
         <v>4</v>
       </c>
-      <c r="E27" s="13">
+      <c r="J27" s="13">
         <v>317</v>
       </c>
-      <c r="F27" s="13">
+      <c r="K27" s="13">
         <v>10</v>
       </c>
-      <c r="G27" s="13">
+      <c r="L27" s="13">
         <v>85</v>
       </c>
-      <c r="H27" s="13">
+      <c r="M27" s="13">
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
